--- a/results/5Fold_collagen_patient-level.xlsx
+++ b/results/5Fold_collagen_patient-level.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1533,11 +1533,7 @@
       <c r="G22" t="n">
         <v>25</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
           <t>att</t>
@@ -1557,6 +1553,110 @@
       </c>
       <c r="N22" t="n">
         <v>1.258675712347031</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>collagen</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>deepsurv</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>resnet18</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>20</v>
+      </c>
+      <c r="F23" t="n">
+        <v>42</v>
+      </c>
+      <c r="G23" t="n">
+        <v>25</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5475000923707921</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.5113690198633467</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.583297307890547</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.1863877311105137</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4.005157327651977</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>collagen</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>deepsurv</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>resnet18</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>20</v>
+      </c>
+      <c r="F24" t="n">
+        <v>42</v>
+      </c>
+      <c r="G24" t="n">
+        <v>25</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5528573666043575</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.5224079171018609</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.592564817193028</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.1908653620619708</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3.827295064926147</v>
       </c>
     </row>
   </sheetData>
